--- a/unmapped_technologies.xlsx
+++ b/unmapped_technologies.xlsx
@@ -15,18 +15,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="2">
   <si>
     <t>internal_sub_business_entity_name</t>
   </si>
   <si>
     <t>arch2</t>
-  </si>
-  <si>
-    <t>SECURITY-Network Security</t>
-  </si>
-  <si>
-    <t>Computing Systems-UCS Invicta</t>
   </si>
 </sst>
 </file>
@@ -375,7 +369,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B430"/>
+  <dimension ref="A1:B416"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -392,98 +386,98 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>2</v>
+      <c r="A2" t="n">
+        <v>0</v>
       </c>
       <c r="B2" t="s"/>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>2</v>
+      <c r="A3" t="n">
+        <v>0</v>
       </c>
       <c r="B3" t="s"/>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>2</v>
+      <c r="A4" t="n">
+        <v>0</v>
       </c>
       <c r="B4" t="s"/>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>2</v>
+      <c r="A5" t="n">
+        <v>0</v>
       </c>
       <c r="B5" t="s"/>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" t="s">
-        <v>2</v>
+      <c r="A6" t="n">
+        <v>0</v>
       </c>
       <c r="B6" t="s"/>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" t="s">
-        <v>2</v>
+      <c r="A7" t="n">
+        <v>0</v>
       </c>
       <c r="B7" t="s"/>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" t="s">
-        <v>2</v>
+      <c r="A8" t="n">
+        <v>0</v>
       </c>
       <c r="B8" t="s"/>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" t="s">
-        <v>2</v>
+      <c r="A9" t="n">
+        <v>0</v>
       </c>
       <c r="B9" t="s"/>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" t="s">
-        <v>2</v>
+      <c r="A10" t="n">
+        <v>0</v>
       </c>
       <c r="B10" t="s"/>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" t="s">
-        <v>2</v>
+      <c r="A11" t="n">
+        <v>0</v>
       </c>
       <c r="B11" t="s"/>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" t="s">
-        <v>2</v>
+      <c r="A12" t="n">
+        <v>0</v>
       </c>
       <c r="B12" t="s"/>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" t="s">
-        <v>2</v>
+      <c r="A13" t="n">
+        <v>0</v>
       </c>
       <c r="B13" t="s"/>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" t="s">
-        <v>2</v>
+      <c r="A14" t="n">
+        <v>0</v>
       </c>
       <c r="B14" t="s"/>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" t="s">
-        <v>2</v>
+      <c r="A15" t="n">
+        <v>0</v>
       </c>
       <c r="B15" t="s"/>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" t="s">
-        <v>2</v>
+      <c r="A16" t="n">
+        <v>0</v>
       </c>
       <c r="B16" t="s"/>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" t="s">
-        <v>3</v>
+      <c r="A17" t="n">
+        <v>0</v>
       </c>
       <c r="B17" t="s"/>
     </row>
@@ -2880,90 +2874,6 @@
         <v>0</v>
       </c>
       <c r="B416" t="s"/>
-    </row>
-    <row r="417" spans="1:2">
-      <c r="A417" t="n">
-        <v>0</v>
-      </c>
-      <c r="B417" t="s"/>
-    </row>
-    <row r="418" spans="1:2">
-      <c r="A418" t="n">
-        <v>0</v>
-      </c>
-      <c r="B418" t="s"/>
-    </row>
-    <row r="419" spans="1:2">
-      <c r="A419" t="n">
-        <v>0</v>
-      </c>
-      <c r="B419" t="s"/>
-    </row>
-    <row r="420" spans="1:2">
-      <c r="A420" t="n">
-        <v>0</v>
-      </c>
-      <c r="B420" t="s"/>
-    </row>
-    <row r="421" spans="1:2">
-      <c r="A421" t="n">
-        <v>0</v>
-      </c>
-      <c r="B421" t="s"/>
-    </row>
-    <row r="422" spans="1:2">
-      <c r="A422" t="n">
-        <v>0</v>
-      </c>
-      <c r="B422" t="s"/>
-    </row>
-    <row r="423" spans="1:2">
-      <c r="A423" t="n">
-        <v>0</v>
-      </c>
-      <c r="B423" t="s"/>
-    </row>
-    <row r="424" spans="1:2">
-      <c r="A424" t="n">
-        <v>0</v>
-      </c>
-      <c r="B424" t="s"/>
-    </row>
-    <row r="425" spans="1:2">
-      <c r="A425" t="n">
-        <v>0</v>
-      </c>
-      <c r="B425" t="s"/>
-    </row>
-    <row r="426" spans="1:2">
-      <c r="A426" t="n">
-        <v>0</v>
-      </c>
-      <c r="B426" t="s"/>
-    </row>
-    <row r="427" spans="1:2">
-      <c r="A427" t="n">
-        <v>0</v>
-      </c>
-      <c r="B427" t="s"/>
-    </row>
-    <row r="428" spans="1:2">
-      <c r="A428" t="n">
-        <v>0</v>
-      </c>
-      <c r="B428" t="s"/>
-    </row>
-    <row r="429" spans="1:2">
-      <c r="A429" t="n">
-        <v>0</v>
-      </c>
-      <c r="B429" t="s"/>
-    </row>
-    <row r="430" spans="1:2">
-      <c r="A430" t="n">
-        <v>0</v>
-      </c>
-      <c r="B430" t="s"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/unmapped_technologies.xlsx
+++ b/unmapped_technologies.xlsx
@@ -377,7 +377,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B503"/>
+  <dimension ref="A1:B523"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2901,6 +2901,106 @@
         <v>0</v>
       </c>
     </row>
+    <row r="504" spans="1:1">
+      <c r="A504">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="505" spans="1:1">
+      <c r="A505">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="506" spans="1:1">
+      <c r="A506">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="507" spans="1:1">
+      <c r="A507">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="508" spans="1:1">
+      <c r="A508">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="509" spans="1:1">
+      <c r="A509">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="510" spans="1:1">
+      <c r="A510">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="511" spans="1:1">
+      <c r="A511">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="512" spans="1:1">
+      <c r="A512">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="513" spans="1:1">
+      <c r="A513">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="514" spans="1:1">
+      <c r="A514">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="515" spans="1:1">
+      <c r="A515">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="516" spans="1:1">
+      <c r="A516">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="517" spans="1:1">
+      <c r="A517">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="518" spans="1:1">
+      <c r="A518">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="519" spans="1:1">
+      <c r="A519">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="520" spans="1:1">
+      <c r="A520">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="521" spans="1:1">
+      <c r="A521">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="522" spans="1:1">
+      <c r="A522">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="523" spans="1:1">
+      <c r="A523">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
